--- a/data/Prueba 1.xlsx
+++ b/data/Prueba 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Karatsuba\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy-Pc\Documents\GitHub\Karatsuba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{95451E99-8A8D-47BB-A3C9-3BA219A303CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8360733-8694-4877-92C4-535EBBF57A54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A347556-D48B-43AC-A3BE-B8CCE0EA7E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A347556-D48B-43AC-A3BE-B8CCE0EA7E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -121,6 +121,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Karatsuba vs Natural</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -134,13 +165,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -171,17 +208,37 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja2!$A$2:$A$67</c:f>
@@ -618,17 +675,37 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja2!$A$2:$A$67</c:f>
@@ -1072,9 +1149,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1090,12 +1167,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1106,9 +1181,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1134,9 +1208,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1152,12 +1226,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1168,9 +1240,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1210,9 +1281,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1236,17 +1306,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1309,62 +1390,66 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1373,9 +1458,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1394,14 +1478,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1410,20 +1486,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1432,13 +1508,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1450,30 +1526,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1489,21 +1566,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1522,14 +1596,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1541,14 +1614,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1562,9 +1635,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1578,12 +1650,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1595,9 +1661,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1612,14 +1678,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1631,14 +1696,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1650,14 +1715,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1666,14 +1730,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1681,7 +1744,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1694,11 +1757,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1706,14 +1777,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1725,12 +1796,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1746,7 +1824,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1755,9 +1833,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1773,14 +1850,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1789,20 +1865,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1814,12 +1887,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2188,17 +2255,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A890C9-7ADF-404B-94CA-7E8E3130CE41}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2220,7 +2287,7 @@
         <v>3.4189999999999915E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2231,7 +2298,7 @@
         <v>9.9739999999999551E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2242,7 +2309,7 @@
         <v>4.1810000000000458E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2253,7 +2320,7 @@
         <v>1.2657999999999975E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2264,7 +2331,7 @@
         <v>4.1139999999999233E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2275,7 +2342,7 @@
         <v>1.3915000000000038E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2286,7 +2353,7 @@
         <v>1.3306000000000012E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2297,7 +2364,7 @@
         <v>1.2038000000000049E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2308,7 +2375,7 @@
         <v>1.093799999999992E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2319,7 +2386,7 @@
         <v>1.8480999999999914E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2330,7 +2397,7 @@
         <v>1.4568999999999832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2341,7 +2408,7 @@
         <v>2.0730000000000193E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2352,7 +2419,7 @@
         <v>2.5151999999999952E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2363,7 +2430,7 @@
         <v>1.3266999999999862E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2374,7 +2441,7 @@
         <v>8.9450000000002028E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2385,7 +2452,7 @@
         <v>1.4704000000000106E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2396,7 +2463,7 @@
         <v>9.2190000000000327E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2407,7 +2474,7 @@
         <v>2.0457000000000114E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2418,7 +2485,7 @@
         <v>2.9506000000000254E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2429,7 +2496,7 @@
         <v>2.910899999999994E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2440,7 +2507,7 @@
         <v>2.5176000000000087E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2451,7 +2518,7 @@
         <v>2.6713000000000153E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2462,7 +2529,7 @@
         <v>1.8250999999999962E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2473,7 +2540,7 @@
         <v>2.0002999999999826E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2484,7 +2551,7 @@
         <v>2.7861000000000136E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2495,7 +2562,7 @@
         <v>1.8970999999999849E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2506,7 +2573,7 @@
         <v>9.0299999999998715E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2517,7 +2584,7 @@
         <v>1.5066000000000246E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2528,7 +2595,7 @@
         <v>1.443899999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2539,7 +2606,7 @@
         <v>2.3558999999999664E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2550,7 +2617,7 @@
         <v>1.4636000000000093E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2561,7 +2628,7 @@
         <v>1.7835999999999963E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2572,7 +2639,7 @@
         <v>3.129700000000013E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2583,7 +2650,7 @@
         <v>1.2028999999999512E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2594,7 +2661,7 @@
         <v>1.4198000000000266E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2605,7 +2672,7 @@
         <v>1.1973000000000122E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2616,7 +2683,7 @@
         <v>1.5207999999999888E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2627,7 +2694,7 @@
         <v>2.5682000000000205E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2638,7 +2705,7 @@
         <v>1.9996999999999931E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2649,7 +2716,7 @@
         <v>1.7518999999999729E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2660,7 +2727,7 @@
         <v>8.9849999999996877E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2671,7 +2738,7 @@
         <v>3.4103000000000327E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2682,7 +2749,7 @@
         <v>1.7659999999999898E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2693,7 +2760,7 @@
         <v>3.4724999999999895E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2704,7 +2771,7 @@
         <v>4.3238000000000443E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2715,7 +2782,7 @@
         <v>9.5110999999999946E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2726,7 +2793,7 @@
         <v>1.243099999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2737,7 +2804,7 @@
         <v>7.5047999999999782E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2748,7 +2815,7 @@
         <v>2.5693999999999995E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2759,7 +2826,7 @@
         <v>3.1900000000000261E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2770,7 +2837,7 @@
         <v>2.5231000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2781,7 +2848,7 @@
         <v>3.9837999999999818E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2792,7 +2859,7 @@
         <v>3.5948000000000091E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2803,7 +2870,7 @@
         <v>6.3230999999999149E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2814,7 +2881,7 @@
         <v>2.9093000000000035E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2825,7 +2892,7 @@
         <v>2.6069999999999149E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2836,7 +2903,7 @@
         <v>1.7441000000000262E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2847,7 +2914,7 @@
         <v>4.1579000000000477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2858,7 +2925,7 @@
         <v>1.9434000000000395E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2869,7 +2936,7 @@
         <v>2.7747000000000188E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2880,7 +2947,7 @@
         <v>1.5522000000000036E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2891,7 +2958,7 @@
         <v>3.9860999999999924E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2902,7 +2969,7 @@
         <v>1.4732000000000633E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2913,7 +2980,7 @@
         <v>2.8723999999999972E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2924,7 +2991,7 @@
         <v>2.3057000000000771E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2950,7 +3017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
